--- a/project/3-results/RT 3004/Resumo.xlsx
+++ b/project/3-results/RT 3004/Resumo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwanderley\Digicorner\Installation Analysis Subsea - Daniel Wanderley\tcc\project\3-results\RT 3004\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C47D43D-78BB-4BD9-BB28-FFF8A8D3B9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7F89E8-E210-49E7-AFEF-F8AFD1DC0942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="49">
   <si>
     <t>Tempo de execução</t>
   </si>
@@ -79,12 +79,12 @@
     <t>Esforços (Flange MCV)</t>
   </si>
   <si>
-    <t>Solução encontrada</t>
-  </si>
-  <si>
     <t>3m do MCV</t>
   </si>
   <si>
+    <t>6m do MCV</t>
+  </si>
+  <si>
     <t>Normal [kN]</t>
   </si>
   <si>
@@ -100,9 +100,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Configuração de flutuadores encontrada</t>
-  </si>
-  <si>
     <t>Esforços encontrados</t>
   </si>
   <si>
@@ -139,6 +136,42 @@
     <t>Sugestão RL Petrobras</t>
   </si>
   <si>
+    <t>5° caso de estudo</t>
+  </si>
+  <si>
+    <t>6° caso de estudo</t>
+  </si>
+  <si>
+    <t>7° caso de estudo</t>
+  </si>
+  <si>
+    <t>8° caso de estudo</t>
+  </si>
+  <si>
+    <t>Configuração de flutuadores encontrada (7° caso de estudo)</t>
+  </si>
+  <si>
+    <t>Configuração de flutuadores encontrada (8° caso de estudo)</t>
+  </si>
+  <si>
+    <t>Solução encontrada (7° caso de estudo)</t>
+  </si>
+  <si>
+    <t>Solução encontrada (8° caso de estudo)</t>
+  </si>
+  <si>
+    <t>600kgf</t>
+  </si>
+  <si>
+    <t>300kgf</t>
+  </si>
+  <si>
+    <t>0,417°</t>
+  </si>
+  <si>
+    <t>0,599m</t>
+  </si>
+  <si>
     <t>500kgf</t>
   </si>
   <si>
@@ -146,9 +179,6 @@
   </si>
   <si>
     <t>0,543m</t>
-  </si>
-  <si>
-    <t>300kgf</t>
   </si>
   <si>
     <t>8 minutos</t>
@@ -247,7 +277,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -259,19 +289,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -301,7 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -312,17 +329,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -331,13 +342,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -350,6 +358,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1456,467 +1494,706 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66128AFD-4C26-48F6-BD31-720326F3BBB0}">
-  <dimension ref="B2:E12"/>
+  <dimension ref="B2:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="9"/>
-    <col min="2" max="5" width="24.28515625" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="4" width="21.85546875" style="10" customWidth="1"/>
+    <col min="5" max="7" width="21.85546875" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="20"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
+    <row r="2" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
+      <c r="E4" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="C6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
+      <c r="C7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="12" t="s">
+      <c r="D7" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="8"/>
+      <c r="C8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B8" s="20" t="s">
+      <c r="D8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" spans="2:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="B11" s="17"/>
+      <c r="C11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B10" s="12" t="s">
+    </row>
+    <row r="12" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C12" s="16">
         <v>4.3339999999999996</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D12" s="11" t="str">
+        <f>IF(ABS(G12)&gt;ABS(C12),"OK","NÃO")</f>
+        <v>OK</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2.5289999999999999</v>
+      </c>
+      <c r="F12" s="11" t="str">
+        <f>IF(ABS(G12)&gt;ABS(E12),"OK","NÃO")</f>
+        <v>OK</v>
+      </c>
+      <c r="G12" s="16">
         <v>5.2</v>
       </c>
-      <c r="E10" s="13" t="str">
-        <f>IF(ABS(D10)&gt;ABS(C10),"OK","NÃO")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="12" t="s">
+    </row>
+    <row r="13" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C13" s="16">
         <v>7.3659999999999997</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D13" s="11" t="str">
+        <f>IF(ABS(G13)&gt;ABS(C13),"OK","NÃO")</f>
+        <v>OK</v>
+      </c>
+      <c r="E13" s="9">
+        <v>3.8530000000000002</v>
+      </c>
+      <c r="F13" s="11" t="str">
+        <f t="shared" ref="F13:F14" si="0">IF(ABS(G13)&gt;ABS(E13),"OK","NÃO")</f>
+        <v>OK</v>
+      </c>
+      <c r="G13" s="16">
         <v>-8.1199999999999992</v>
       </c>
-      <c r="E11" s="13" t="str">
-        <f>IF(ABS(D11)&gt;ABS(C11),"OK","NÃO")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B12" s="12" t="s">
+    </row>
+    <row r="14" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B14" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C14" s="16">
         <v>11.352</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D14" s="11" t="str">
+        <f>IF(ABS(G14)&gt;ABS(C14),"OK","NÃO")</f>
+        <v>OK</v>
+      </c>
+      <c r="E14" s="9">
+        <v>4.8259999999999996</v>
+      </c>
+      <c r="F14" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="G14" s="16">
         <v>12.55</v>
       </c>
-      <c r="E12" s="13" t="str">
-        <f>IF(ABS(D12)&gt;ABS(C12),"OK","NÃO")</f>
-        <v>OK</v>
-      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B10:G10"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557A01BB-56A9-4EF9-AD44-E368C3B5A69E}">
-  <dimension ref="B3:F35"/>
+  <dimension ref="B3:G43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F18"/>
+      <selection activeCell="B4" sqref="B4:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="6" width="23.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="2" max="2" width="14.28515625" style="18" customWidth="1"/>
+    <col min="3" max="7" width="23.42578125" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="28"/>
+      <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D5" s="7">
+        <v>5.66</v>
+      </c>
+      <c r="E5" s="7">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="F5" s="7">
+        <v>31.43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="28"/>
+      <c r="C6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6.59</v>
+      </c>
+      <c r="E6" s="7">
+        <v>-11.66</v>
+      </c>
+      <c r="F6" s="7">
+        <v>-44.93</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="7">
-        <v>5.66</v>
-      </c>
-      <c r="D5" s="7">
-        <v>-4.0999999999999996</v>
-      </c>
-      <c r="E5" s="7">
-        <v>31.43</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="7">
-        <v>6.59</v>
-      </c>
-      <c r="D6" s="7">
-        <v>-11.66</v>
-      </c>
-      <c r="E6" s="7">
-        <v>-44.93</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="24"/>
+      <c r="C9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="7">
         <v>6.9550000000000001</v>
       </c>
-      <c r="D9" s="7">
+      <c r="E9" s="7">
         <v>13.878</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9" s="7">
         <v>39.192999999999998</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="G9" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="24"/>
+      <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="16" t="str">
-        <f>IF(OR(ABS($C$5)&gt;ABS(C9),ABS($C$6)&gt;ABS(C9)),"OK","NÃO")</f>
-        <v>NÃO</v>
-      </c>
-      <c r="D10" s="16" t="str">
+      <c r="D10" s="13" t="str">
         <f>IF(OR(ABS($D$5)&gt;ABS(D9),ABS($D$6)&gt;ABS(D9)),"OK","NÃO")</f>
         <v>NÃO</v>
       </c>
-      <c r="E10" s="14" t="str">
+      <c r="E10" s="13" t="str">
         <f>IF(OR(ABS($E$5)&gt;ABS(E9),ABS($E$6)&gt;ABS(E9)),"OK","NÃO")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>21</v>
-      </c>
+        <v>NÃO</v>
+      </c>
+      <c r="F10" s="12" t="str">
+        <f>IF(OR(ABS($F$5)&gt;ABS(F9),ABS($F$6)&gt;ABS(F9)),"OK","NÃO")</f>
+        <v>OK</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="24"/>
+      <c r="C11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4.4710000000000001</v>
+      </c>
+      <c r="E11" s="7">
+        <v>5.56</v>
+      </c>
+      <c r="F11" s="7">
+        <v>16.398</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="24"/>
       <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="12" t="str">
+        <f>IF(OR(ABS($D$5)&gt;ABS(D11),ABS($D$6)&gt;ABS(D11)),"OK","NÃO")</f>
+        <v>OK</v>
+      </c>
+      <c r="E12" s="12" t="str">
+        <f>IF(OR(ABS($E$5)&gt;ABS(E11),ABS($E$6)&gt;ABS(E11)),"OK","NÃO")</f>
+        <v>OK</v>
+      </c>
+      <c r="F12" s="12" t="str">
+        <f>IF(OR(ABS($F$5)&gt;ABS(F11),ABS($F$6)&gt;ABS(F11)),"OK","NÃO")</f>
+        <v>OK</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="24"/>
+      <c r="C15" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="7">
+        <v>6.3440000000000003</v>
+      </c>
+      <c r="E15" s="7">
+        <v>12.343</v>
+      </c>
+      <c r="F15" s="7">
+        <v>34.24</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="24"/>
+      <c r="C16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="12" t="str">
+        <f>IF(OR(ABS($D$5)&gt;ABS(D15),ABS($D$6)&gt;ABS(D15)),"OK","NÃO")</f>
+        <v>OK</v>
+      </c>
+      <c r="E16" s="13" t="str">
+        <f>IF(OR(ABS($E$5)&gt;ABS(E15),ABS($E$6)&gt;ABS(E15)),"OK","NÃO")</f>
+        <v>NÃO</v>
+      </c>
+      <c r="F16" s="12" t="str">
+        <f>IF(OR(ABS($F$5)&gt;ABS(F15),ABS($F$6)&gt;ABS(F15)),"OK","NÃO")</f>
+        <v>OK</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="24"/>
+      <c r="C19" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="7">
+        <v>6.1159999999999997</v>
+      </c>
+      <c r="E19" s="7">
+        <v>11.722</v>
+      </c>
+      <c r="F19" s="7">
+        <v>32.118000000000002</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="24"/>
+      <c r="C20" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="12" t="str">
+        <f>IF(OR(ABS($D$5)&gt;ABS(D19),ABS($D$6)&gt;ABS(D19)),"OK","NÃO")</f>
+        <v>OK</v>
+      </c>
+      <c r="E20" s="13" t="str">
+        <f>IF(OR(ABS($E$5)&gt;ABS(E19),ABS($E$6)&gt;ABS(E19)),"OK","NÃO")</f>
+        <v>NÃO</v>
+      </c>
+      <c r="F20" s="12" t="str">
+        <f>IF(OR(ABS($F$5)&gt;ABS(F19),ABS($F$6)&gt;ABS(F19)),"OK","NÃO")</f>
+        <v>OK</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="7">
+        <v>34</v>
+      </c>
+      <c r="F25" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="D28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="7">
+        <v>14.738</v>
+      </c>
+      <c r="F28" s="7">
+        <v>7.5229999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="24"/>
+      <c r="D29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="12" t="str">
+        <f>IF(ABS($E$25)&gt;ABS(E28),"OK","NÃO")</f>
+        <v>OK</v>
+      </c>
+      <c r="F29" s="12" t="str">
+        <f>IF(ABS($F$25)&gt;ABS(F28),"OK","NÃO")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="24"/>
+      <c r="D30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="7">
+        <v>12.638999999999999</v>
+      </c>
+      <c r="F30" s="7">
+        <v>4.6829999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="24"/>
+      <c r="D31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="12" t="str">
+        <f>IF(ABS($E$25)&gt;ABS(E30),"OK","NÃO")</f>
+        <v>OK</v>
+      </c>
+      <c r="F31" s="12" t="str">
+        <f>IF(ABS($F$25)&gt;ABS(F30),"OK","NÃO")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="7">
+        <v>12.864000000000001</v>
+      </c>
+      <c r="F34" s="7">
+        <v>4.3609999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="24"/>
+      <c r="D35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="12" t="str">
+        <f>IF(ABS($E$25)&gt;ABS(E34),"OK","NÃO")</f>
+        <v>OK</v>
+      </c>
+      <c r="F35" s="12" t="str">
+        <f>IF(ABS($F$25)&gt;ABS(F34),"OK","NÃO")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="24"/>
+      <c r="D36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="7">
+        <v>11.661</v>
+      </c>
+      <c r="F36" s="7">
+        <v>2.1909999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="24"/>
+      <c r="D37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="12" t="str">
+        <f>IF(ABS($E$25)&gt;ABS(E36),"OK","NÃO")</f>
+        <v>OK</v>
+      </c>
+      <c r="F37" s="12" t="str">
+        <f>IF(ABS($F$25)&gt;ABS(F36),"OK","NÃO")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E39" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="7">
-        <v>6.3440000000000003</v>
-      </c>
-      <c r="D13" s="7">
-        <v>12.343</v>
-      </c>
-      <c r="E13" s="7">
-        <v>34.24</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="D40" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="7">
+        <v>13.12</v>
+      </c>
+      <c r="F40" s="7">
+        <v>3.194</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="24"/>
+      <c r="D41" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="14" t="str">
-        <f>IF(OR(ABS($C$5)&gt;ABS(C13),ABS($C$6)&gt;ABS(C13)),"OK","NÃO")</f>
-        <v>OK</v>
-      </c>
-      <c r="D14" s="16" t="str">
-        <f>IF(OR(ABS($D$5)&gt;ABS(D13),ABS($D$6)&gt;ABS(D13)),"OK","NÃO")</f>
-        <v>NÃO</v>
-      </c>
-      <c r="E14" s="14" t="str">
-        <f>IF(OR(ABS($E$5)&gt;ABS(E13),ABS($E$6)&gt;ABS(E13)),"OK","NÃO")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="7">
-        <v>6.1159999999999997</v>
-      </c>
-      <c r="D17" s="7">
-        <v>11.722</v>
-      </c>
-      <c r="E17" s="7">
-        <v>32.118000000000002</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
+      <c r="E41" s="12" t="str">
+        <f>IF(ABS($E$25)&gt;ABS(E40),"OK","NÃO")</f>
+        <v>OK</v>
+      </c>
+      <c r="F41" s="12" t="str">
+        <f>IF(ABS($F$25)&gt;ABS(F40),"OK","NÃO")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="24"/>
+      <c r="D42" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="7">
+        <v>6.4740000000000002</v>
+      </c>
+      <c r="F42" s="7">
+        <v>1.2310000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="24"/>
+      <c r="D43" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="14" t="str">
-        <f>IF(OR(ABS($C$5)&gt;ABS(C17),ABS($C$6)&gt;ABS(C17)),"OK","NÃO")</f>
-        <v>OK</v>
-      </c>
-      <c r="D18" s="16" t="str">
-        <f>IF(OR(ABS($D$5)&gt;ABS(D17),ABS($D$6)&gt;ABS(D17)),"OK","NÃO")</f>
-        <v>NÃO</v>
-      </c>
-      <c r="E18" s="14" t="str">
-        <f>IF(OR(ABS($E$5)&gt;ABS(E17),ABS($E$6)&gt;ABS(E17)),"OK","NÃO")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D22" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="7">
-        <v>34</v>
-      </c>
-      <c r="E23" s="7">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D25" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="7">
-        <v>15.456</v>
-      </c>
-      <c r="E26" s="7">
-        <v>10.025</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="14" t="str">
-        <f>IF(ABS($D$23)&gt;ABS(D26),"OK","NÃO")</f>
-        <v>OK</v>
-      </c>
-      <c r="E27" s="14" t="str">
-        <f>IF(ABS($E$23)&gt;ABS(E26),"OK","NÃO")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D29" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="7">
-        <v>14.954000000000001</v>
-      </c>
-      <c r="E30" s="7">
-        <v>7.1310000000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="14" t="str">
-        <f>IF(ABS($D$23)&gt;ABS(D30),"OK","NÃO")</f>
-        <v>OK</v>
-      </c>
-      <c r="E31" s="14" t="str">
-        <f>IF(ABS($E$23)&gt;ABS(E30),"OK","NÃO")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D33" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="7">
-        <v>14.702999999999999</v>
-      </c>
-      <c r="E34" s="7">
-        <v>5.89</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="14" t="str">
-        <f>IF(ABS($D$23)&gt;ABS(D34),"OK","NÃO")</f>
-        <v>OK</v>
-      </c>
-      <c r="E35" s="14" t="str">
-        <f>IF(ABS($E$23)&gt;ABS(E34),"OK","NÃO")</f>
+      <c r="E43" s="12" t="str">
+        <f>IF(ABS($E$25)&gt;ABS(E42),"OK","NÃO")</f>
+        <v>OK</v>
+      </c>
+      <c r="F43" s="12" t="str">
+        <f>IF(ABS($F$25)&gt;ABS(F42),"OK","NÃO")</f>
         <v>OK</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C3:E3"/>
+  <mergeCells count="8">
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B18:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1930,6 +2207,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="461c5b05-e7ae-45a9-96d4-4a689e060405">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="903036b2-f8dc-4ca8-82df-457cf2fff651" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010069E487C1B5A6A7469ECF295E300FC521" ma:contentTypeVersion="14" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="0960ac6fc61b40489ab078022ce7de8d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="509bbd28-9a6d-445a-83dd-f5d328eece76" xmlns:ns3="903036b2-f8dc-4ca8-82df-457cf2fff651" xmlns:ns4="461c5b05-e7ae-45a9-96d4-4a689e060405" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d2f069df8fef6df821bd87bc04dd1b2c" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="509bbd28-9a6d-445a-83dd-f5d328eece76"/>
@@ -2169,17 +2457,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="461c5b05-e7ae-45a9-96d4-4a689e060405">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="903036b2-f8dc-4ca8-82df-457cf2fff651" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE441129-F54B-4D33-B976-D7CE1A891F97}">
   <ds:schemaRefs>
@@ -2189,6 +2466,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4B9A1E1-E38D-4E21-AEB0-60CD45C1521D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="461c5b05-e7ae-45a9-96d4-4a689e060405"/>
+    <ds:schemaRef ds:uri="903036b2-f8dc-4ca8-82df-457cf2fff651"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDF94D1C-ABAA-474F-9A4F-89708A96C25A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2206,15 +2494,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4B9A1E1-E38D-4E21-AEB0-60CD45C1521D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="461c5b05-e7ae-45a9-96d4-4a689e060405"/>
-    <ds:schemaRef ds:uri="903036b2-f8dc-4ca8-82df-457cf2fff651"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>